--- a/数据整理/stocks/A股/上证主板/603026-石大胜华.xlsx
+++ b/数据整理/stocks/A股/上证主板/603026-石大胜华.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>82.66</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.78</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -566,26 +596,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000061</t>
+          <t>011188</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏盛世混合</t>
+          <t>信达澳银星奕混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.21</t>
+          <t>46.80</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>74.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7582</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -594,26 +634,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>240004</t>
+          <t>000061</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝动力组合混合</t>
+          <t>华夏盛世混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>88.06</t>
+          <t>8.57</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3617</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -632,15 +682,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>24.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>93.19</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.13</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2796</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -650,26 +710,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004344</t>
+          <t>240004</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方大数据100指数C</t>
+          <t>华宝动力组合混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.19</t>
+          <t>7.51</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2794</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -678,25 +748,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011188</t>
+          <t>011223</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>信达澳银星奕混合A</t>
+          <t>信达澳银星奕混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>74.31</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1.62</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>
@@ -706,26 +786,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011223</t>
+          <t>550009</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>信达澳银星奕混合C</t>
+          <t>信诚中小盘混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>74.31</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -734,26 +824,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>550009</t>
+          <t>003567</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>信诚中小盘混合</t>
+          <t>华夏行业景气混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>86.71</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -772,15 +872,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>85.61</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1.41</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>10</v>
       </c>
     </row>
@@ -790,26 +900,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>003567</t>
+          <t>004344</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华夏行业景气混合</t>
+          <t>南方大数据100指数C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>89.87</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6.50</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603026-石大胜华.xlsx
+++ b/数据整理/stocks/A股/上证主板/603026-石大胜华.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -935,4 +936,1502 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>海富通股票混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8816</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001410</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银新能源产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>115.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6574</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011188</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>100.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3147</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6777</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005136</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安幸福生活混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4785</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银先进智造股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4766</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008085</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3758</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3094</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009913</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信保诚成长动力混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2976</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2513</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011223</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>100.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2273</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010925</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2155</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.47</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1887</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1650</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009437</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1493</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007484</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信达澳银核心科技混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1397</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008084</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1268</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1146</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004925</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长信低碳环保行业量化股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006225</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010926</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009438</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>450007</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国富成长动力混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>79.33</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010461</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>民生加银康利混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>30.21</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006226</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603026-石大胜华.xlsx
+++ b/数据整理/stocks/A股/上证主板/603026-石大胜华.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2434,4 +2435,2112 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001951</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.2157</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.9613</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161028</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证新能源汽车指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>103.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6920</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005939</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信新能源汽车主题混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>98.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4422</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515030</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.4242</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002803</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>58.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.3452</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005136</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安幸福生活混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>46.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.0005</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519005</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>海富通股票混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.7353</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002350</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>40.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3556</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005940</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信新能源汽车主题混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>47.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1765</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>210008</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金鹰策略配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0250</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>169102</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方红睿阳三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>23.44</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9071</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6523</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001298</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金鹰民族新兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6187</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3492</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>22.45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3121</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004925</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长信低碳环保行业量化股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3088</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2933</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009008</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>平安科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2869</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008085</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2688</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2348</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010805</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西藏东财中证新能源汽车指数A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>95.24</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2188</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001416</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>16.43</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2169</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011512</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天弘中证新能源汽车指数A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1593</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011513</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天弘中证新能源汽车指数C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1204</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>14.43</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1111</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005457</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>景顺长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008084</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159824</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.11</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010806</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>西藏东财中证新能源汽车指数C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>95.24</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>562880</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实中证电池主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009009</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>平安科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011277</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>上银科技驱动双周定期可赎回混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>516660</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华安中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010925</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001339</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>兴银鼎新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>68.51</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011254</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001139</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华安新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010926</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011255</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>97.35</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603026-石大胜华.xlsx
+++ b/数据整理/stocks/A股/上证主板/603026-石大胜华.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4543,4 +4544,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>54</v>
+      </c>
+      <c r="D2" t="n">
+        <v>31.64</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>38</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603026-石大胜华.xlsx
+++ b/数据整理/stocks/A股/上证主板/603026-石大胜华.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4552,7 +4553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4563,17 +4564,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4583,14 +4604,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>54</v>
-      </c>
-      <c r="D2" t="n">
-        <v>31.64</v>
+          <t>001951</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5171</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -4599,14 +4642,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>38</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.49</v>
+          <t>002350</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>61.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0518</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -4615,14 +4680,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.93</v>
+          <t>210008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰策略配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9258</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -4631,13 +4718,493 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001298</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰民族新兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7273</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>516020</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1117</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>233009</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大摩多因子精选策略混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0916</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001139</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>97.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>54</v>
+      </c>
+      <c r="D3" t="n">
+        <v>31.64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>38</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603026-石大胜华.xlsx
+++ b/数据整理/stocks/A股/上证主板/603026-石大胜华.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5103,7 +5104,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5114,17 +5115,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5134,14 +5155,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.57</v>
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>112.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2541</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -5150,14 +5193,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>54</v>
-      </c>
-      <c r="D3" t="n">
-        <v>31.64</v>
+          <t>001951</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5480</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -5166,14 +5231,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>38</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.49</v>
+          <t>002350</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>42.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9811</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -5182,14 +5269,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>210008</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰策略配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7455</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.93</v>
       </c>
     </row>
     <row r="6">
@@ -5198,13 +5307,281 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>014207</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>62.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5954</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014208</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>62.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1729</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D4" t="n">
+        <v>31.64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>38</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603026-石大胜华.xlsx
+++ b/数据整理/stocks/A股/上证主板/603026-石大胜华.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5464,7 +5465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5475,17 +5476,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5495,14 +5516,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>111.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2046</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.32</v>
       </c>
     </row>
     <row r="3">
@@ -5511,14 +5554,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.57</v>
+          <t>001951</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1093</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -5527,14 +5592,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>54</v>
-      </c>
-      <c r="D4" t="n">
-        <v>31.64</v>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -5543,14 +5630,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>38</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11.49</v>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -5559,14 +5668,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>9</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.93</v>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -5575,13 +5706,259 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>96.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D5" t="n">
+        <v>31.64</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>38</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.49</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603026-石大胜华.xlsx
+++ b/数据整理/stocks/A股/上证主板/603026-石大胜华.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>5.54</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>8.32</v>
+        <v>5.54</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>6.57</v>
+        <v>8.32</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>31.64</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D6" t="n">
-        <v>11.49</v>
+        <v>31.64</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D7" t="n">
-        <v>1.93</v>
+        <v>11.49</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,302 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003567</t>
+          <t>001951</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏行业景气混合</t>
+          <t>金鹰改革红利灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>111.66</t>
+          <t>29.23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.27</t>
+          <t>94.49</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.2046</t>
+          <t>1.1692</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001951</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>金鹰改革红利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>37.07</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.1093</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002906</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方中证500量化增强股票A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.03</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.86</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1019</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002311</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>创金合信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.78</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.30</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0653</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002316</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>创金合信中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.30</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0376</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002907</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>南方中证500量化增强股票C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.86</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0203</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>515510</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>嘉实中证500成长估值ETF</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>98.79</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>510570</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>兴业中证500ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>96.59</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1026,26 +777,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>112.21</t>
+          <t>111.66</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.63</t>
+          <t>89.27</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.2541</t>
+          <t>3.2046</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1064,26 +815,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>34.34</t>
+          <t>37.07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>94.82</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.42</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.5480</t>
+          <t>2.1093</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1092,36 +843,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002350</t>
+          <t>002906</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华安安华灵活配置混合</t>
+          <t>南方中证500量化增强股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>42.47</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.61</t>
+          <t>93.86</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.9811</t>
+          <t>0.1019</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1130,36 +881,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>210008</t>
+          <t>002311</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金鹰策略配置混合</t>
+          <t>创金合信中证500指数增强A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.62</t>
+          <t>5.78</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.37</t>
+          <t>94.30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.02</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.7455</t>
+          <t>0.0653</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1168,36 +919,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>014207</t>
+          <t>002316</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安产业精选混合A</t>
+          <t>创金合信中证500指数增强C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>27.31</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>62.03</t>
+          <t>94.30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.5954</t>
+          <t>0.0376</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1206,36 +957,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>014208</t>
+          <t>002907</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华安产业精选混合C</t>
+          <t>南方中证500量化增强股票C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.93</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>62.03</t>
+          <t>93.86</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1729</t>
+          <t>0.0203</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1244,36 +995,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>003646</t>
+          <t>515510</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>创金合信中证1000指数增强A</t>
+          <t>嘉实中证500成长估值ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.96</t>
+          <t>98.79</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0151</t>
+          <t>0.0018</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1282,36 +1033,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>003647</t>
+          <t>510570</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>创金合信中证1000指数增强C</t>
+          <t>兴业中证500ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>90.96</t>
+          <t>96.59</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0101</t>
+          <t>0.0006</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1320,6 +1071,366 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>112.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2541</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001951</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5480</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002350</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>42.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9811</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>210008</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰策略配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7455</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014207</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>62.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5954</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014208</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>62.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1729</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1869,7 +1980,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3977,7 +4088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5475,7 +5586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5873,7 +5984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
